--- a/data/raw/litter_respiration.xlsx
+++ b/data/raw/litter_respiration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -569,12 +569,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -601,22 +601,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,16 +628,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,14 +667,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,21 +689,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -697,10 +697,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -713,15 +714,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -730,7 +723,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,7 +738,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,19 +759,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,13 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,90 +891,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -903,13 +903,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,25 +933,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,11 +955,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,15 +977,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -999,24 +988,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,16 +1021,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1068,37 +1068,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1107,94 +1107,94 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1211,20 +1211,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1549,8 +1549,8 @@
   <sheetPr/>
   <dimension ref="A1:L281"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13:P14"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -1686,8 +1686,12 @@
       <c r="G4" s="9">
         <v>0</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
       <c r="J4">
         <v>60</v>
       </c>
@@ -2192,8 +2196,12 @@
       <c r="G19" s="9">
         <v>0</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
       <c r="J19">
         <v>60</v>
       </c>
@@ -2222,8 +2230,12 @@
       <c r="G20" s="9">
         <v>0</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
       <c r="J20">
         <v>60</v>
       </c>
@@ -14468,7 +14480,7 @@
   <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
